--- a/01_講義/プレ研修/001_7つの習慣/「7つの習慣 For 新人ITエンジニア」研修_運用チェックシート_1.0.xlsx
+++ b/01_講義/プレ研修/001_7つの習慣/「7つの習慣 For 新人ITエンジニア」研修_運用チェックシート_1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\000_2023\ITスクール\2023FILE\プレ研修\001_7つの習慣\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Documents\2023FILE\01_講義\プレ研修\001_7つの習慣\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91566227-E123-4B50-BD95-B39C988615DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30732998-D180-4776-9CE7-B9324E691E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集合形式用 運用チェックシート" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>開始前備品チェック</t>
   </si>
@@ -566,12 +566,16 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>☑</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -658,6 +662,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -735,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,6 +778,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -782,8 +795,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,7 +1019,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1018,10 +1031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1074,8 +1087,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
+      <c r="A7" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
@@ -1088,8 +1101,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
+      <c r="A8" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -1102,8 +1115,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
+      <c r="A9" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -1116,8 +1129,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
+      <c r="A10" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>14</v>
@@ -1130,8 +1143,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
+      <c r="A11" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>16</v>
@@ -1144,8 +1157,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
+      <c r="A12" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
@@ -1169,8 +1182,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>21</v>
@@ -1183,8 +1196,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
+      <c r="A15" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1197,8 +1210,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
+      <c r="A16" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>24</v>
@@ -1226,28 +1239,28 @@
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1256,22 +1269,22 @@
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="E22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="E23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1280,10 +1293,10 @@
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1307,10 +1320,10 @@
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="14"/>
       <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1319,11 +1332,11 @@
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="18" t="s">
+      <c r="C28" s="14"/>
+      <c r="E28" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1331,11 +1344,11 @@
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="E29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1379,10 +1392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1468,8 +1481,8 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1482,28 +1495,28 @@
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/01_講義/プレ研修/001_7つの習慣/「7つの習慣 For 新人ITエンジニア」研修_運用チェックシート_1.0.xlsx
+++ b/01_講義/プレ研修/001_7つの習慣/「7つの習慣 For 新人ITエンジニア」研修_運用チェックシート_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Documents\2023FILE\01_講義\プレ研修\001_7つの習慣\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30732998-D180-4776-9CE7-B9324E691E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325A66E-6F3D-48D9-BB14-417538FD4B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="集合形式用 運用チェックシート" sheetId="1" r:id="rId1"/>
     <sheet name="オンライン形式用 運用チェックシート" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>開始前備品チェック</t>
   </si>
@@ -162,408 +175,8 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>上手く講義することが目的じゃない。</t>
-    <rPh sb="0" eb="2">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウギ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>受講生自身が考えそれぞれ感じたことを大切にしよう。</t>
-    <rPh sb="0" eb="5">
-      <t>ジュコウセイジシン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タイセツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>成功とは？</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>色々な考えがあって良い。</t>
-    <rPh sb="0" eb="2">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>その上で7つの習慣のいうところの成功とは、</t>
-    <rPh sb="2" eb="3">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>皆さんの人生の舵を取るのは、皆さん自身。</t>
-    <rPh sb="0" eb="1">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジシン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>あなた次第で、どんな未来にもたどり着ける。</t>
-    <rPh sb="3" eb="5">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミライ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>今日のこの研修が、その未来を望むものにするためのちょっとしたきっかけになるかも知れません。</t>
-    <rPh sb="0" eb="2">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンシュウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>7つの習慣とは、「望む未来へ進むために、意識しておくといい事」のフレームワークです。</t>
-    <rPh sb="3" eb="5">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミライ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イシキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ならないかも知れません。</t>
-    <rPh sb="6" eb="7">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>7つの習慣を実践し、成長の糧にすることが出来るかも知れません。</t>
-    <rPh sb="3" eb="5">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッセン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイチョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カテ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>それを決めるのは、あなた次第です。</t>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>望む未来を手にする事。またそこへ近づいていくことを実感する過程。</t>
-    <rPh sb="0" eb="1">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミライ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッカン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>人生における成功とは？</t>
-    <rPh sb="0" eb="2">
-      <t>ジンセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>自分自身が本当に望んでいるものもを知ったうえで、</t>
-    <rPh sb="0" eb="4">
-      <t>ジブンジシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「効果的にやろう、阻害する要因は取り除こう」というのが、7つの習慣デス。</t>
-    <rPh sb="9" eb="11">
-      <t>ソガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウイン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュウカン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>Googleドライブからダウンロードします。
 ※「7つの習慣 For 新人ITエンジニア」研修 運用マニュアル参照</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>今回は「7つの習慣 For 新人ITエンジニア」となります。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>社会人としの最初の3年は、その先の30年に大きな影響を与えます。
-その3年に大きな影響を与えるのが、最初の3か月です。
-そう、「今」です。
-今日からの3か月であり、「今」なのです。
-このスタートを社会人としてどう取り組むのかにフォーカスした内容となっています。
-是非、何か得て、皆様のお役に立てて頂ければ幸いです。</t>
-    <rPh sb="0" eb="2">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="98" eb="101">
-      <t>シャカイジン</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ゼヒ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ミナサマ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>サイワ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>あなた自身が望む未来を手にする事。</t>
-    <rPh sb="3" eb="5">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ミライ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>本当に望んでいるものが何なのかを考える時間、自分を知ろうとする事が大切。</t>
-    <rPh sb="0" eb="2">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タイセツ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -781,6 +394,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -794,9 +410,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +632,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1030,49 +643,40 @@
     <col min="4" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1082,13 +686,10 @@
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
@@ -1096,13 +697,10 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -1110,13 +708,10 @@
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -1124,13 +719,10 @@
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>14</v>
@@ -1138,13 +730,10 @@
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>16</v>
@@ -1152,13 +741,10 @@
       <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
@@ -1167,23 +753,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>21</v>
@@ -1191,13 +774,10 @@
       <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1205,13 +785,10 @@
       <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>24</v>
@@ -1224,9 +801,6 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -1239,75 +813,60 @@
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -1320,34 +879,29 @@
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="E28" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="C28" s="15"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="E29" s="12"/>
     </row>
   </sheetData>
@@ -1392,10 +946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1481,8 +1035,8 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1495,28 +1049,28 @@
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
